--- a/sputnik/personal/cel/cel39.xlsx
+++ b/sputnik/personal/cel/cel39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
   </si>
 </sst>
 </file>
@@ -162,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +217,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,16 +605,64 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A7" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>44060</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>44060</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>44060</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>44060</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12">
+        <v>1449</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel39.xlsx
+++ b/sputnik/personal/cel/cel39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -526,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -663,6 +663,18 @@
       <c r="D11" s="12">
         <v>1449</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel39.xlsx
+++ b/sputnik/personal/cel/cel39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -529,7 +529,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,15 +665,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>43952</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1000</v>
-      </c>
+      <c r="A12" s="17"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
   </sheetData>

--- a/sputnik/personal/cel/cel39.xlsx
+++ b/sputnik/personal/cel/cel39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +225,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,10 +672,27 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel39.xlsx
+++ b/sputnik/personal/cel/cel39.xlsx
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -183,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -213,7 +220,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -226,6 +232,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,7 +545,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+      <selection activeCell="C7" sqref="C7:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,7 +573,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -576,7 +585,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -588,7 +597,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -600,7 +609,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -612,85 +621,85 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43952</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="19">
         <v>1000</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>44060</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>44060</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44060</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="7">
         <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>44060</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="12">
         <v>1449</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>44317</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="21">
         <v>1000</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>44317</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="21">
         <v>170</v>
       </c>
     </row>

--- a/sputnik/personal/cel/cel39.xlsx
+++ b/sputnik/personal/cel/cel39.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,10 +237,11 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,10 +549,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,7 +634,7 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1000</v>
       </c>
       <c r="D7" s="17"/>
@@ -639,7 +646,7 @@
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="6">
         <v>500</v>
       </c>
@@ -651,7 +658,7 @@
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="6">
         <v>200</v>
       </c>
@@ -663,7 +670,7 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="7">
         <v>431</v>
       </c>
@@ -675,7 +682,7 @@
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="12">
         <v>1449</v>
       </c>
@@ -687,10 +694,10 @@
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>1000</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -699,9 +706,64 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>170</v>
       </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>44473</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>44473</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
